--- a/RPL_V2/xlsx/logo_rpl.xlsx
+++ b/RPL_V2/xlsx/logo_rpl.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -268,12 +273,6 @@
     <t>Акрон</t>
   </si>
   <si>
-    <t>звёзд</t>
-  </si>
-  <si>
-    <t>клубов</t>
-  </si>
-  <si>
     <t>побед</t>
   </si>
   <si>
@@ -407,13 +406,19 @@
   </si>
   <si>
     <t>Динамо</t>
+  </si>
+  <si>
+    <t>звезды</t>
+  </si>
+  <si>
+    <t>клуба</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,17 +477,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -520,9 +533,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,9 +567,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,9 +602,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -763,14 +778,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -873,7 +890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -902,28 +919,28 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P3" t="s">
         <v>45</v>
       </c>
       <c r="Q3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -952,28 +969,28 @@
         <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N4" t="s">
         <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P4" t="s">
         <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -996,34 +1013,34 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
         <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
         <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s">
         <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P5" t="s">
         <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1046,34 +1063,34 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
         <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
         <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s">
         <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P6" t="s">
         <v>45</v>
       </c>
       <c r="Q6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1108,22 +1125,22 @@
         <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
         <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P7" t="s">
         <v>45</v>
       </c>
       <c r="Q7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1152,13 +1169,13 @@
         <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
         <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s">
         <v>45</v>
@@ -1173,7 +1190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1223,7 +1240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1252,7 +1269,7 @@
         <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>45</v>
@@ -1273,7 +1290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1314,7 +1331,7 @@
         <v>45</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P11" t="s">
         <v>45</v>
@@ -1323,7 +1340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1358,7 +1375,7 @@
         <v>45</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N12" t="s">
         <v>45</v>
@@ -1373,7 +1390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1414,16 +1431,16 @@
         <v>45</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P13" t="s">
         <v>45</v>
       </c>
       <c r="Q13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1473,7 +1490,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1523,7 +1540,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1543,10 +1560,10 @@
         <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1564,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1576,7 +1593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1596,10 +1613,10 @@
         <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1617,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1629,7 +1646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1670,7 +1687,7 @@
         <v>45</v>
       </c>
       <c r="O18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P18" t="s">
         <v>45</v>
@@ -1679,7 +1696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1726,10 +1743,10 @@
         <v>45</v>
       </c>
       <c r="Q19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1755,7 +1772,7 @@
         <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
         <v>45</v>
@@ -1773,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="O20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P20" t="s">
         <v>45</v>
@@ -1782,7 +1799,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1802,7 +1819,7 @@
         <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
         <v>67</v>
@@ -1811,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1829,13 +1846,13 @@
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1855,7 +1872,7 @@
         <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="H22" t="s">
         <v>67</v>
@@ -1864,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1882,13 +1899,13 @@
         <v>5</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1917,7 +1934,7 @@
         <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L23" t="s">
         <v>45</v>
@@ -1929,7 +1946,7 @@
         <v>45</v>
       </c>
       <c r="O23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P23" t="s">
         <v>45</v>
@@ -1938,7 +1955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1967,7 +1984,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s">
         <v>45</v>
@@ -1988,7 +2005,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2008,40 +2025,40 @@
         <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
         <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" t="s">
         <v>103</v>
       </c>
-      <c r="L25" t="s">
-        <v>105</v>
-      </c>
       <c r="M25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2061,40 +2078,40 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
         <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s">
         <v>45</v>
       </c>
       <c r="M26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N26" t="s">
         <v>45</v>
       </c>
       <c r="O26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P26" t="s">
         <v>45</v>
       </c>
       <c r="Q26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2114,40 +2131,40 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s">
         <v>45</v>
       </c>
       <c r="M27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s">
         <v>45</v>
       </c>
       <c r="O27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P27" t="s">
         <v>45</v>
       </c>
       <c r="Q27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2167,19 +2184,19 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
         <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s">
         <v>45</v>
@@ -2197,7 +2214,7 @@
         <v>45</v>
       </c>
       <c r="Q28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
